--- a/rules/rules_20220630.xlsx
+++ b/rules/rules_20220630.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADEF8E3-7B13-493C-9F41-05F54CD0745B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FB8F3B-07D7-4686-A3BE-E2253629280A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>

--- a/rules/rules_20220630.xlsx
+++ b/rules/rules_20220630.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CC06C9-ACE9-4CDC-B6F0-5E5760CC58E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117D24B1-E39D-4DBE-94B3-EF3E3369DE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
   <si>
     <t>ICI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>passive4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -456,7 +460,7 @@
     <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -481,8 +485,11 @@
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -507,8 +514,11 @@
       <c r="H2" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -533,8 +543,11 @@
       <c r="H3" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -559,8 +572,11 @@
       <c r="H4" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -585,8 +601,11 @@
       <c r="H5" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -611,8 +630,11 @@
       <c r="H6" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -637,8 +659,11 @@
       <c r="H7" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -663,8 +688,11 @@
       <c r="H8" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -689,8 +717,11 @@
       <c r="H9" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -715,8 +746,11 @@
       <c r="H10" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -741,8 +775,11 @@
       <c r="H11" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -767,8 +804,11 @@
       <c r="H12" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -793,8 +833,11 @@
       <c r="H13" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -819,8 +862,11 @@
       <c r="H14" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -845,8 +891,11 @@
       <c r="H15" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -871,8 +920,11 @@
       <c r="H16" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -897,8 +949,11 @@
       <c r="H17" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -923,8 +978,11 @@
       <c r="H18" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -949,8 +1007,11 @@
       <c r="H19" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1036,11 @@
       <c r="H20" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1001,8 +1065,11 @@
       <c r="H21" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1027,8 +1094,11 @@
       <c r="H22" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1053,8 +1123,11 @@
       <c r="H23" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1079,8 +1152,11 @@
       <c r="H24" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -1105,8 +1181,11 @@
       <c r="H25" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1131,8 +1210,11 @@
       <c r="H26" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1239,11 @@
       <c r="H27" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1268,11 @@
       <c r="H28" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1297,11 @@
       <c r="H29" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1326,11 @@
       <c r="H30" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1261,8 +1355,11 @@
       <c r="H31" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
@@ -1287,8 +1384,11 @@
       <c r="H32" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
@@ -1313,8 +1413,11 @@
       <c r="H33" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -1339,8 +1442,11 @@
       <c r="H34" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
@@ -1365,8 +1471,11 @@
       <c r="H35" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -1391,8 +1500,11 @@
       <c r="H36" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
@@ -1417,8 +1529,11 @@
       <c r="H37" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
@@ -1443,8 +1558,11 @@
       <c r="H38" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>13</v>
       </c>
@@ -1469,8 +1587,11 @@
       <c r="H39" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
@@ -1495,8 +1616,11 @@
       <c r="H40" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -1521,8 +1645,11 @@
       <c r="H41" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -1547,8 +1674,11 @@
       <c r="H42" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -1573,8 +1703,11 @@
       <c r="H43" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -1599,8 +1732,11 @@
       <c r="H44" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
@@ -1624,6 +1760,9 @@
       </c>
       <c r="H45" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
